--- a/excel2json-master/QuestScript_Data.xlsx
+++ b/excel2json-master/QuestScript_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077EE9D0-3DB4-48E5-B651-D53E0C68C32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51D7914-2128-4DE7-8EAF-633C07DC146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="2130" windowWidth="19110" windowHeight="12255" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
+    <workbookView xWindow="11535" yWindow="1200" windowWidth="17145" windowHeight="13260" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="96">
   <si>
     <t>촌장님한테 돌아가야겠어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,54 @@
   </si>
   <si>
     <t>#QuestScript[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민들과 인사는 했는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네. 그런데 모습들이 다 개구리인데.. 무슨 사연이 있으신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시.. 괜찮다면 이 늙은이의 이야기를 들어줄 수 있겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네. 말씀하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 이런 모습인 것이 의아할 걸세.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리도 자세한 이유는 모르겠지만 얼마 전부터 이렇게 됐네..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 그 이유를 마을 밖 동물들이 난폭해진 것과 연관이 있다고 생각하네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기까지 오면서 동물들을 보진 못해서 몰랐네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 만남에 무리한 부탁이지만.. 띠리띠리와 상황을 보고 와줄 수 있겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리는 마을 입구에서 마을을 지키고 있을 걸세. 한 번 가보게나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아.. 안녕. 네가 어젯밤에 온 손님인가 보네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38187CEB-C85B-4882-A8E4-E722601192A3}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1813,8 +1861,287 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1011</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F63" s="3"/>
+      <c r="B63">
+        <v>1011</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>1011</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1011</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>1011</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1011</v>
+      </c>
+      <c r="C67" s="2">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1011</v>
+      </c>
+      <c r="C68" s="2">
+        <v>7</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1011</v>
+      </c>
+      <c r="C69" s="2">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1011</v>
+      </c>
+      <c r="C70" s="2">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1011</v>
+      </c>
+      <c r="C71" s="2">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1012</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C73"/>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C74"/>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C75"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C79"/>
+      <c r="D79"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C80"/>
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81"/>
+      <c r="D81"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82"/>
+      <c r="D82"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C83"/>
+      <c r="D83"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C84"/>
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C85"/>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C86"/>
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C87"/>
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C88"/>
+      <c r="D88"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C89"/>
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C90"/>
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C91"/>
+      <c r="D91"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C92"/>
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C93"/>
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C94"/>
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C95"/>
+      <c r="D95"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
